--- a/Resume_avk/.1DevOps.xlsx
+++ b/Resume_avk/.1DevOps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -91,10 +91,16 @@
     <t>Prometheus</t>
   </si>
   <si>
-    <t>All Notes Done</t>
-  </si>
-  <si>
-    <t>Study</t>
+    <t>Ist 5 Mins of the interview is Completed.</t>
+  </si>
+  <si>
+    <t>M-Class</t>
+  </si>
+  <si>
+    <t>Linux Done</t>
+  </si>
+  <si>
+    <t>GIT/Maven</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,10 +528,10 @@
         <v>44</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -544,6 +550,9 @@
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -629,6 +638,9 @@
       <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -646,6 +658,9 @@
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -662,6 +677,9 @@
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/Resume_avk/.1DevOps.xlsx
+++ b/Resume_avk/.1DevOps.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -129,6 +128,63 @@
   </si>
   <si>
     <t>EKS-Kalyan</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>No Mastrubation</t>
+  </si>
+  <si>
+    <t>No Enjoyments</t>
+  </si>
+  <si>
+    <t>Watch DB-N from last</t>
+  </si>
+  <si>
+    <t>Summary of each video</t>
+  </si>
+  <si>
+    <t>Make Questions on each video.</t>
+  </si>
+  <si>
+    <t>If feeling so get up from there</t>
+  </si>
+  <si>
+    <t>try writing summary at first it will be difficult</t>
+  </si>
+  <si>
+    <t>Make Interview Questions</t>
+  </si>
+  <si>
+    <t>try to speak loudly</t>
+  </si>
+  <si>
+    <t>DB-N-PG/Ansible</t>
+  </si>
+  <si>
+    <t>DB-N-Ansible/PY</t>
+  </si>
+  <si>
+    <t>Python Prog/Trf</t>
+  </si>
+  <si>
+    <t>K8S/EKS</t>
+  </si>
+  <si>
+    <t>Jenkins/AWS</t>
+  </si>
+  <si>
+    <t>Interview_Prep</t>
+  </si>
+  <si>
+    <t>ALL AWS</t>
+  </si>
+  <si>
+    <t>AlLL EKS-KALYAN</t>
+  </si>
+  <si>
+    <t>DevSecOps</t>
   </si>
 </sst>
 </file>
@@ -144,12 +200,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -179,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +253,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,20 +559,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="108.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="108.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -522,8 +587,9 @@
         <v>2</v>
       </c>
       <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>64</v>
       </c>
@@ -539,14 +605,15 @@
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>63</v>
       </c>
@@ -562,14 +629,15 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>62</v>
       </c>
@@ -585,27 +653,29 @@
       <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
-      <c r="F5" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>61</v>
       </c>
@@ -621,11 +691,12 @@
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
+      <c r="F6" s="5"/>
+      <c r="J6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>60</v>
       </c>
@@ -641,14 +712,15 @@
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" s="5"/>
+      <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>59</v>
       </c>
@@ -664,14 +736,17 @@
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>58</v>
       </c>
@@ -687,17 +762,20 @@
       <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>77</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>57</v>
       </c>
@@ -713,17 +791,20 @@
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>30</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>56</v>
       </c>
@@ -739,17 +820,20 @@
       <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>30</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>55</v>
       </c>
@@ -765,17 +849,20 @@
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>30</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>54</v>
       </c>
@@ -791,8 +878,11 @@
       <c r="E13" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>53</v>
       </c>
@@ -808,11 +898,17 @@
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>52</v>
       </c>
@@ -828,11 +924,20 @@
       <c r="E15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>51</v>
       </c>
@@ -848,11 +953,17 @@
       <c r="E16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -868,11 +979,17 @@
       <c r="E17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>49</v>
       </c>
@@ -888,11 +1005,20 @@
       <c r="E18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>48</v>
       </c>
@@ -908,11 +1034,20 @@
       <c r="E19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>47</v>
       </c>
@@ -928,11 +1063,17 @@
       <c r="E20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>46</v>
       </c>
@@ -948,11 +1089,14 @@
       <c r="E21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45</v>
       </c>
@@ -968,11 +1112,14 @@
       <c r="E22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44</v>
       </c>
@@ -988,11 +1135,12 @@
       <c r="E23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43</v>
       </c>
@@ -1008,11 +1156,12 @@
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42</v>
       </c>
@@ -1028,11 +1177,14 @@
       <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41</v>
       </c>
@@ -1048,11 +1200,14 @@
       <c r="E26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40</v>
       </c>
@@ -1068,11 +1223,14 @@
       <c r="E27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>39</v>
       </c>
@@ -1088,11 +1246,14 @@
       <c r="E28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>38</v>
       </c>
@@ -1108,11 +1269,14 @@
       <c r="E29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37</v>
       </c>
@@ -1128,11 +1292,14 @@
       <c r="E30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>36</v>
       </c>
@@ -1148,11 +1315,14 @@
       <c r="E31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>35</v>
       </c>
@@ -1168,11 +1338,14 @@
       <c r="E32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -1188,11 +1361,14 @@
       <c r="E33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1208,11 +1384,14 @@
       <c r="E34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1228,11 +1407,14 @@
       <c r="E35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>31</v>
       </c>
@@ -1248,11 +1430,14 @@
       <c r="E36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30</v>
       </c>
@@ -1268,11 +1453,14 @@
       <c r="E37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>29</v>
       </c>
@@ -1288,11 +1476,14 @@
       <c r="E38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>28</v>
       </c>
@@ -1308,11 +1499,14 @@
       <c r="E39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>27</v>
       </c>
@@ -1328,11 +1522,14 @@
       <c r="E40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>26</v>
       </c>
@@ -1348,11 +1545,9 @@
       <c r="E41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>25</v>
       </c>
@@ -1368,11 +1563,9 @@
       <c r="E42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>24</v>
       </c>
@@ -1388,11 +1581,9 @@
       <c r="E43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>23</v>
       </c>
@@ -1408,11 +1599,9 @@
       <c r="E44" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>22</v>
       </c>
@@ -1426,11 +1615,9 @@
         <v>3</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>21</v>
       </c>
@@ -1444,11 +1631,9 @@
         <v>2</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>20</v>
       </c>
@@ -1462,11 +1647,9 @@
         <v>1</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>19</v>
       </c>

--- a/Resume_avk/.1DevOps.xlsx
+++ b/Resume_avk/.1DevOps.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -185,6 +186,87 @@
   </si>
   <si>
     <t>DevSecOps</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>No. of Weeks</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>DevOps Intro Questions, Explain your Project</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Maven, SonarQube, Jfrog, Nexus</t>
+  </si>
+  <si>
+    <t>AWS Services, Revision</t>
+  </si>
+  <si>
+    <t>Kubernetes, EKS Week</t>
+  </si>
+  <si>
+    <t>CKA-SA, K8S-RC Missing Topics</t>
+  </si>
+  <si>
+    <t>EKS-USM, EKS-KALYAN</t>
+  </si>
+  <si>
+    <t>EKS-KALYAN</t>
+  </si>
+  <si>
+    <t>AWS SAA, Security</t>
+  </si>
+  <si>
+    <t>Ansible, Prometheus</t>
+  </si>
+  <si>
+    <t>Overall Revision</t>
+  </si>
+  <si>
+    <t>Resume Revision</t>
+  </si>
+  <si>
+    <t>DIP Revision</t>
+  </si>
+  <si>
+    <t>All Topics Revision - W1</t>
+  </si>
+  <si>
+    <t>All Topics Revision - W2</t>
+  </si>
+  <si>
+    <t>All Topics Revision - W3</t>
+  </si>
+  <si>
+    <t>All Topics Revision - W4</t>
+  </si>
+  <si>
+    <t>Jobs Apply</t>
   </si>
 </sst>
 </file>
@@ -214,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -237,11 +319,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,6 +398,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +760,956 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44702</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44703</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44704</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44705</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>34</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44706</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>33</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44707</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>32</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44708</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>31</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44709</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44710</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>29</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44711</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>28</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44712</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>27</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44713</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>26</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44714</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>25</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44715</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>24</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44716</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>23</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44717</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>22</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44718</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>21</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44719</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>20</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44720</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>19</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44721</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>18</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>36</v>
+      </c>
+      <c r="B22" s="8">
+        <v>44722</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>17</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44723</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>16</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44724</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>15</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>33</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44725</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>14</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44726</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>13</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>31</v>
+      </c>
+      <c r="B27" s="8">
+        <v>44727</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="7">
+        <v>12</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44728</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>11</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44729</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44730</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>9</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44731</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>26</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44732</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44733</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44734</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>23</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44735</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>22</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44736</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44737</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>20</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44738</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>19</v>
+      </c>
+      <c r="B39" s="8">
+        <v>44739</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>18</v>
+      </c>
+      <c r="B40" s="26">
+        <v>44740</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>17</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44741</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>16</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44742</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>15</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>14</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44744</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>13</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44745</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>12</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44746</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>11</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44747</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44748</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>9</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44749</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44750</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44751</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44752</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>5</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44753</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44754</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44755</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44756</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44757</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F17:F22"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,9 +1883,7 @@
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="H8" t="s">
         <v>28</v>
       </c>
@@ -1300,22 +2445,22 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="7">
         <v>36</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="8">
         <v>44722</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="7">
         <v>17</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G31" t="s">
@@ -1415,22 +2560,22 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="7">
         <v>31</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="8">
         <v>44727</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="7">
         <v>12</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G36" t="s">

--- a/Resume_avk/.1DevOps.xlsx
+++ b/Resume_avk/.1DevOps.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -209,42 +209,18 @@
     <t>Topics</t>
   </si>
   <si>
-    <t>DevOps Intro Questions, Explain your Project</t>
-  </si>
-  <si>
-    <t>GIT</t>
-  </si>
-  <si>
     <t>Revision</t>
   </si>
   <si>
     <t>Planning</t>
   </si>
   <si>
-    <t>Maven, SonarQube, Jfrog, Nexus</t>
-  </si>
-  <si>
     <t>AWS Services, Revision</t>
   </si>
   <si>
-    <t>Kubernetes, EKS Week</t>
-  </si>
-  <si>
     <t>CKA-SA, K8S-RC Missing Topics</t>
   </si>
   <si>
-    <t>EKS-USM, EKS-KALYAN</t>
-  </si>
-  <si>
-    <t>EKS-KALYAN</t>
-  </si>
-  <si>
-    <t>AWS SAA, Security</t>
-  </si>
-  <si>
-    <t>Ansible, Prometheus</t>
-  </si>
-  <si>
     <t>Overall Revision</t>
   </si>
   <si>
@@ -267,13 +243,76 @@
   </si>
   <si>
     <t>Jobs Apply</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>EKS-KALYAN last 3 topics</t>
+  </si>
+  <si>
+    <t>CKA-SA</t>
+  </si>
+  <si>
+    <t>Missing Topics</t>
+  </si>
+  <si>
+    <t>EKS-USM</t>
+  </si>
+  <si>
+    <t>EKS-RAJ</t>
+  </si>
+  <si>
+    <t>25, 26, 30</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>DevOps Intro Questions, Explain your Project &amp; Interview Questions</t>
+  </si>
+  <si>
+    <t>Linux &amp; Interview Questions</t>
+  </si>
+  <si>
+    <t>GIT &amp; Interview Questions</t>
+  </si>
+  <si>
+    <t>Maven, SonarQube, Jfrog, Nexus, &amp; Interview Questions</t>
+  </si>
+  <si>
+    <t>Docker &amp; Interview Questions</t>
+  </si>
+  <si>
+    <t>Jenkins &amp; Interview Questions</t>
+  </si>
+  <si>
+    <t>Kubernetes, EKS Week &amp; Interview Questions</t>
+  </si>
+  <si>
+    <t>AWS SAA, Security &amp; Interview Questions</t>
+  </si>
+  <si>
+    <t>Terraform &amp; Interview Questions</t>
+  </si>
+  <si>
+    <t>Python &amp; Interview Questions</t>
+  </si>
+  <si>
+    <t>EKS-USM, EKS-RAJ</t>
+  </si>
+  <si>
+    <t>Ansible, Prometheus &amp; Interview Questions</t>
+  </si>
+  <si>
+    <t>DevSecOps &amp; Interview Questions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,8 +320,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,8 +342,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -317,17 +376,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -361,17 +409,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -384,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,15 +442,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -421,40 +449,56 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,95 +804,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>56</v>
+      </c>
+      <c r="B2" s="24">
+        <v>44702</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="23">
+        <v>37</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>55</v>
+      </c>
+      <c r="B3" s="8">
+        <v>44703</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7">
+        <v>36</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>54</v>
+      </c>
+      <c r="B4" s="8">
+        <v>44704</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>35</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>56</v>
-      </c>
-      <c r="B2" s="3">
-        <v>44702</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>37</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>55</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44703</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>36</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>54</v>
-      </c>
-      <c r="B4" s="3">
-        <v>44704</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>35</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>53</v>
       </c>
@@ -861,12 +929,18 @@
       <c r="D5" s="1">
         <v>34</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="19"/>
+      <c r="F5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>52</v>
       </c>
@@ -879,10 +953,16 @@
       <c r="D6" s="1">
         <v>33</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="19"/>
+      <c r="F6" s="21"/>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>51</v>
       </c>
@@ -895,12 +975,21 @@
       <c r="D7" s="1">
         <v>32</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="19"/>
+      <c r="F7" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>50</v>
       </c>
@@ -913,10 +1002,16 @@
       <c r="D8" s="1">
         <v>31</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="19"/>
+      <c r="F8" s="22"/>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>49</v>
       </c>
@@ -929,12 +1024,18 @@
       <c r="D9" s="1">
         <v>30</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="19"/>
+      <c r="F9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>48</v>
       </c>
@@ -947,14 +1048,20 @@
       <c r="D10" s="1">
         <v>29</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>47</v>
       </c>
@@ -967,10 +1074,10 @@
       <c r="D11" s="1">
         <v>28</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>46</v>
       </c>
@@ -983,12 +1090,12 @@
       <c r="D12" s="1">
         <v>27</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="19"/>
+      <c r="F12" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45</v>
       </c>
@@ -1001,10 +1108,10 @@
       <c r="D13" s="1">
         <v>26</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44</v>
       </c>
@@ -1017,12 +1124,12 @@
       <c r="D14" s="1">
         <v>25</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="19"/>
+      <c r="F14" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43</v>
       </c>
@@ -1035,10 +1142,13 @@
       <c r="D15" s="1">
         <v>24</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="19"/>
+      <c r="F15" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42</v>
       </c>
@@ -1051,10 +1161,9 @@
       <c r="D16" s="1">
         <v>23</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1069,14 +1178,12 @@
       <c r="D17" s="1">
         <v>22</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>32</v>
+      <c r="F17" s="18"/>
+      <c r="G17" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1092,9 +1199,11 @@
       <c r="D18" s="1">
         <v>21</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="14"/>
+      <c r="G18" s="12" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1109,10 +1218,10 @@
       <c r="D19" s="1">
         <v>20</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="16" t="s">
-        <v>71</v>
+      <c r="G19" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1128,11 +1237,9 @@
       <c r="D20" s="1">
         <v>19</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="16" t="s">
-        <v>72</v>
-      </c>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1147,11 +1254,11 @@
       <c r="D21" s="1">
         <v>18</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="14" t="s">
-        <v>73</v>
-      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -1166,9 +1273,11 @@
       <c r="D22" s="7">
         <v>17</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1183,10 +1292,8 @@
       <c r="D23" s="1">
         <v>16</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1201,12 +1308,10 @@
       <c r="D24" s="1">
         <v>15</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>74</v>
-      </c>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1221,8 +1326,10 @@
       <c r="D25" s="1">
         <v>14</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="22"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="12" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1237,8 +1344,10 @@
       <c r="D26" s="1">
         <v>13</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="23"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="11" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
@@ -1253,9 +1362,9 @@
       <c r="D27" s="7">
         <v>12</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="16" t="s">
-        <v>18</v>
+      <c r="E27" s="19"/>
+      <c r="F27" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1271,10 +1380,8 @@
       <c r="D28" s="1">
         <v>11</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1289,8 +1396,10 @@
       <c r="D29" s="1">
         <v>10</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="18" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1305,10 +1414,8 @@
       <c r="D30" s="1">
         <v>9</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="17" t="s">
-        <v>75</v>
-      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1323,10 +1430,10 @@
       <c r="D31" s="1">
         <v>8</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="24"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1341,9 +1448,9 @@
       <c r="D32" s="1">
         <v>7</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="25" t="s">
-        <v>66</v>
+      <c r="E32" s="19"/>
+      <c r="F32" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1359,12 +1466,12 @@
       <c r="D33" s="1">
         <v>6</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
-        <v>76</v>
+      <c r="E33" s="19"/>
+      <c r="F33" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1380,10 +1487,10 @@
       <c r="D34" s="1">
         <v>5</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1399,10 +1506,10 @@
       <c r="D35" s="1">
         <v>4</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1418,10 +1525,10 @@
       <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1437,10 +1544,10 @@
       <c r="D37" s="1">
         <v>2</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="18"/>
       <c r="G37" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1456,10 +1563,10 @@
       <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="18"/>
       <c r="G38" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1477,18 +1584,18 @@
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
+      <c r="A40" s="15">
         <v>18</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="17">
         <v>44740</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1680,27 +1787,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F17:F22"/>
-    <mergeCell ref="F14:F15"/>
+  <mergeCells count="16">
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="E10:E16"/>
     <mergeCell ref="E17:E23"/>
     <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="G19:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Resume_avk/.1DevOps.xlsx
+++ b/Resume_avk/.1DevOps.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="203">
   <si>
     <t>Date</t>
   </si>
@@ -306,6 +309,324 @@
   </si>
   <si>
     <t>DevSecOps &amp; Interview Questions</t>
+  </si>
+  <si>
+    <t>Pre-commit Hooks</t>
+  </si>
+  <si>
+    <t>Source Conposition Analysis (SCA)</t>
+  </si>
+  <si>
+    <t>Static App Security Testing (SAST)</t>
+  </si>
+  <si>
+    <t>Dynamic App Security Testing (DAST)</t>
+  </si>
+  <si>
+    <t>Security in infrastructure as Code</t>
+  </si>
+  <si>
+    <t>Secret Management</t>
+  </si>
+  <si>
+    <t>Talisman, git-secret, truffleHog, Git Hound</t>
+  </si>
+  <si>
+    <t>Dependency-check, Requires.io, retire.js</t>
+  </si>
+  <si>
+    <t>Bandit, RIPS, SonarQube, PMD</t>
+  </si>
+  <si>
+    <t>arachni, w3af, wapiti</t>
+  </si>
+  <si>
+    <t>OpenVAS, anchore, clair</t>
+  </si>
+  <si>
+    <t>Security Steps</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Developers Machine</t>
+  </si>
+  <si>
+    <t>when the developer tries to commit the code to a source code management system, it runs test to check any sensitive data is being pushed and it will deny the commit or push. On the source code management side.</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Secret Vaults</t>
+  </si>
+  <si>
+    <t>If we want to store any secrets or any sensitive configurations, maybe we can encrypt them or make use of some secret vaults like HashiCorp Vaults.</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>we can also do some static code analysis to see the code coverage, code smells, code duplications and the code quality.</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Before we build or during the build, we can test the dependencies which are being used in the application for the vulnerabilities, if you are building a Docker image or docker container, we could scan for your images, add image signatures, scan Dockerfiles to weed out any bad configurations.</t>
+  </si>
+  <si>
+    <t>Deploy-Stage</t>
+  </si>
+  <si>
+    <t>Validate Image Signature</t>
+  </si>
+  <si>
+    <t>During the deploy, all the staging stuff, we could validate the image signature, which were added in the previous step to make sure that you're running the correct image and also run some integration tests. Before we run or promote the application to a production stage</t>
+  </si>
+  <si>
+    <t>Deploy-Prod</t>
+  </si>
+  <si>
+    <t>DAST-Dynamic Application Security Testing</t>
+  </si>
+  <si>
+    <t>We should run a dynamic application security testing for interface security testing. And we could also do infrastructure compliance and validating both the runtime configs and the cluster configurations before we run or deploy the application.</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Security Logs</t>
+  </si>
+  <si>
+    <t>And as far as security is concerned with respect to Kubernetes, there are many things to take into consideration, like our RBAC rules, SELinux, Apparmor, network policies, mutual authentication, auditing and many more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We also need to monitor both the application logs as well as the security logs to analyze and mitigate any realtime issues. </t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>[Pre-commit]  Pre-Push hooks - Talisman</t>
+  </si>
+  <si>
+    <t>Static Code Analysis - PIT Mutation tests, SonarQube</t>
+  </si>
+  <si>
+    <t>Dependency Check, Trivy Image Scan, OPA Conftest for Kubernetes Vulnerabilities.</t>
+  </si>
+  <si>
+    <t>AWS SAA</t>
+  </si>
+  <si>
+    <t>DB-N Linux/DevOps Intro</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>Maven, SonarQube, Jfrog, Nexus</t>
+  </si>
+  <si>
+    <t>Jenkins/AWS Services</t>
+  </si>
+  <si>
+    <t>K8S, EKS</t>
+  </si>
+  <si>
+    <t>Ansible, Prometheus</t>
+  </si>
+  <si>
+    <t>I Videos</t>
+  </si>
+  <si>
+    <t>frame logical questions</t>
+  </si>
+  <si>
+    <t>raj interview questions</t>
+  </si>
+  <si>
+    <t>50 interview questions</t>
+  </si>
+  <si>
+    <t>Ambition box questions</t>
+  </si>
+  <si>
+    <t>DeekshitSN Questions</t>
+  </si>
+  <si>
+    <t>AWS Important Questions</t>
+  </si>
+  <si>
+    <t>Resume Study</t>
+  </si>
+  <si>
+    <t>Interviewbit questions</t>
+  </si>
+  <si>
+    <t>DIP-V2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revision Stop Learning New stuff. </t>
+  </si>
+  <si>
+    <t>Need to learn writing Jenkins file.</t>
+  </si>
+  <si>
+    <t>Need to go throgh project once more.</t>
+  </si>
+  <si>
+    <t>Jenkins shared Library</t>
+  </si>
+  <si>
+    <t>Enable versioning of artifacts?</t>
+  </si>
+  <si>
+    <t>Jenkins slave System</t>
+  </si>
+  <si>
+    <t>Integrating Slack with Jenkins</t>
+  </si>
+  <si>
+    <t>Integrating Jira with Jenkins</t>
+  </si>
+  <si>
+    <t>Intrgating Slack with Jira.</t>
+  </si>
+  <si>
+    <t>Jenkins folder system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study 2 - 3 Jenkins file for in the interview. </t>
+  </si>
+  <si>
+    <t>Securing the Jenkins</t>
+  </si>
+  <si>
+    <t>Scaling Jenkins</t>
+  </si>
+  <si>
+    <t>finish db-n</t>
+  </si>
+  <si>
+    <t>finish git</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal blue print, </t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>finish above questions</t>
+  </si>
+  <si>
+    <t>Jenkins backup</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Maven, SonarQube</t>
+  </si>
+  <si>
+    <t>Artifactory</t>
+  </si>
+  <si>
+    <t>TRF</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Need to check VPC &amp; S3 &amp; ELB &amp; EC2</t>
+  </si>
+  <si>
+    <t>50DQ</t>
+  </si>
+  <si>
+    <t>DT-IQ</t>
+  </si>
+  <si>
+    <t>CWRAJ</t>
+  </si>
+  <si>
+    <t>Deekshit</t>
+  </si>
+  <si>
+    <t>STI</t>
+  </si>
+  <si>
+    <t>Balaji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKS-KALYAN </t>
+  </si>
+  <si>
+    <t>RESUME</t>
+  </si>
+  <si>
+    <t>28, 29, 30</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t>5, 6, 7</t>
+  </si>
+  <si>
+    <t>IMP Things</t>
+  </si>
+  <si>
+    <t>8, 9 10</t>
+  </si>
+  <si>
+    <t>K8S troubleshooting</t>
+  </si>
+  <si>
+    <t>AWS Ranga till Section 19</t>
+  </si>
+  <si>
+    <t>CKA Course</t>
+  </si>
+  <si>
+    <t>System design by Raj</t>
+  </si>
+  <si>
+    <t>all the files stuff need to write and learn</t>
+  </si>
+  <si>
+    <t>Need to learn all the gitHub</t>
+  </si>
+  <si>
+    <t>DB-N from Docker</t>
+  </si>
+  <si>
+    <t>EKS PD</t>
+  </si>
+  <si>
+    <t>AWS RANGA till Section 19</t>
+  </si>
+  <si>
+    <t>System Design by Raj</t>
+  </si>
+  <si>
+    <t>EKS-Kalyan docker and K8s fundamentals</t>
   </si>
 </sst>
 </file>
@@ -355,7 +676,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -417,11 +738,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,14 +832,72 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,22 +1203,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>76</v>
       </c>
@@ -835,11 +1236,12 @@
       <c r="E1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>56</v>
       </c>
@@ -853,17 +1255,24 @@
         <v>37</v>
       </c>
       <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>55</v>
       </c>
@@ -876,20 +1285,24 @@
       <c r="D3" s="7">
         <v>36</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>54</v>
       </c>
@@ -902,45 +1315,52 @@
       <c r="D4" s="7">
         <v>35</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>53</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="8">
         <v>44705</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>34</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>52</v>
       </c>
@@ -953,16 +1373,20 @@
       <c r="D6" s="1">
         <v>33</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="21"/>
-      <c r="I6">
+      <c r="E6" s="36"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="39"/>
+      <c r="I6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>51</v>
       </c>
@@ -975,21 +1399,25 @@
       <c r="D7" s="1">
         <v>32</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>37</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>50</v>
       </c>
@@ -1002,16 +1430,20 @@
       <c r="D8" s="1">
         <v>31</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="22"/>
-      <c r="I8">
+      <c r="E8" s="36"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="40"/>
+      <c r="I8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8">
         <v>7</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>49</v>
       </c>
@@ -1024,18 +1456,22 @@
       <c r="D9" s="1">
         <v>30</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9">
         <v>8</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>48</v>
       </c>
@@ -1048,20 +1484,24 @@
       <c r="D10" s="1">
         <v>29</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="29"/>
+      <c r="G10" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>47</v>
       </c>
@@ -1074,10 +1514,14 @@
       <c r="D11" s="1">
         <v>28</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="36"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="37"/>
+      <c r="I11" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>46</v>
       </c>
@@ -1090,12 +1534,13 @@
       <c r="D12" s="1">
         <v>27</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="36"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45</v>
       </c>
@@ -1108,10 +1553,11 @@
       <c r="D13" s="1">
         <v>26</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="36"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44</v>
       </c>
@@ -1124,12 +1570,13 @@
       <c r="D14" s="1">
         <v>25</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43</v>
       </c>
@@ -1142,13 +1589,20 @@
       <c r="D15" s="1">
         <v>24</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="36"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="13"/>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="R15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42</v>
       </c>
@@ -1161,11 +1615,17 @@
       <c r="D16" s="1">
         <v>23</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="36"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="14"/>
+      <c r="J16" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41</v>
       </c>
@@ -1178,15 +1638,21 @@
       <c r="D17" s="1">
         <v>22</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="12" t="s">
+      <c r="F17" s="29"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40</v>
       </c>
@@ -1199,13 +1665,22 @@
       <c r="D18" s="1">
         <v>21</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="12" t="s">
+      <c r="E18" s="36"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="R18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39</v>
       </c>
@@ -1218,13 +1693,18 @@
       <c r="D19" s="1">
         <v>20</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18" t="s">
+      <c r="E19" s="36"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>38</v>
       </c>
@@ -1237,11 +1717,17 @@
       <c r="D20" s="1">
         <v>19</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="36"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="J20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>37</v>
       </c>
@@ -1254,13 +1740,19 @@
       <c r="D21" s="1">
         <v>18</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="35"/>
+      <c r="J21" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>36</v>
       </c>
@@ -1273,13 +1765,19 @@
       <c r="D22" s="7">
         <v>17</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="22" t="s">
+      <c r="E22" s="36"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="35"/>
+      <c r="J22" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>35</v>
       </c>
@@ -1292,10 +1790,15 @@
       <c r="D23" s="1">
         <v>16</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="36"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="40"/>
+      <c r="J23" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>34</v>
       </c>
@@ -1308,12 +1811,28 @@
       <c r="D24" s="1">
         <v>15</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="29"/>
+      <c r="G24" s="40"/>
+      <c r="J24" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="O24" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>168</v>
+      </c>
+      <c r="R24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>33</v>
       </c>
@@ -1326,12 +1845,16 @@
       <c r="D25" s="1">
         <v>14</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="12" t="s">
+      <c r="E25" s="36"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J25" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>32</v>
       </c>
@@ -1344,12 +1867,17 @@
       <c r="D26" s="1">
         <v>13</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="11" t="s">
+      <c r="E26" s="36"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J26" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>31</v>
       </c>
@@ -1362,12 +1890,17 @@
       <c r="D27" s="7">
         <v>12</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="18" t="s">
+      <c r="E27" s="36"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="37" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30</v>
       </c>
@@ -1380,10 +1913,11 @@
       <c r="D28" s="1">
         <v>11</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="36"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1396,12 +1930,13 @@
       <c r="D29" s="1">
         <v>10</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="18" t="s">
+      <c r="E29" s="36"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1414,10 +1949,14 @@
       <c r="D30" s="1">
         <v>9</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="36"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="37"/>
+      <c r="J30" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1430,12 +1969,16 @@
       <c r="D31" s="1">
         <v>8</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="29"/>
+      <c r="G31" s="37"/>
+      <c r="J31" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -1448,12 +1991,16 @@
       <c r="D32" s="1">
         <v>7</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="16" t="s">
+      <c r="E32" s="36"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J32" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -1466,15 +2013,21 @@
       <c r="D33" s="1">
         <v>6</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="18" t="s">
+      <c r="E33" s="36"/>
+      <c r="F33" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>24</v>
       </c>
@@ -1487,13 +2040,14 @@
       <c r="D34" s="1">
         <v>5</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="4" t="s">
+      <c r="E34" s="36"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>23</v>
       </c>
@@ -1506,13 +2060,14 @@
       <c r="D35" s="1">
         <v>4</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="4" t="s">
+      <c r="E35" s="36"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>22</v>
       </c>
@@ -1525,13 +2080,14 @@
       <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="4" t="s">
+      <c r="E36" s="36"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>21</v>
       </c>
@@ -1544,13 +2100,14 @@
       <c r="D37" s="1">
         <v>2</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="4" t="s">
+      <c r="E37" s="36"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>20</v>
       </c>
@@ -1563,13 +2120,14 @@
       <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="4" t="s">
+      <c r="E38" s="36"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>19</v>
       </c>
@@ -1583,12 +2141,13 @@
         <v>0</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>18</v>
       </c>
@@ -1599,7 +2158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>17</v>
       </c>
@@ -1610,7 +2169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>16</v>
       </c>
@@ -1621,7 +2180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>15</v>
       </c>
@@ -1632,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>14</v>
       </c>
@@ -1643,7 +2202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>13</v>
       </c>
@@ -1654,7 +2213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>12</v>
       </c>
@@ -1665,7 +2224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>11</v>
       </c>
@@ -1676,7 +2235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>10</v>
       </c>
@@ -1787,23 +2346,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="E10:E16"/>
     <mergeCell ref="E17:E23"/>
     <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1811,6 +2371,1738 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="L1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44706</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="29">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>176</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" s="48">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44707</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="29">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" t="s">
+        <v>176</v>
+      </c>
+      <c r="R3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="48">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44708</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="29">
+        <v>31</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" t="s">
+        <v>172</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" t="s">
+        <v>184</v>
+      </c>
+      <c r="X4" s="48">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44709</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="29">
+        <v>30</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" t="s">
+        <v>173</v>
+      </c>
+      <c r="R5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44710</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="29">
+        <v>29</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>176</v>
+      </c>
+      <c r="R6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" t="s">
+        <v>178</v>
+      </c>
+      <c r="X6" s="48">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44711</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="29">
+        <v>28</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>176</v>
+      </c>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" t="s">
+        <v>179</v>
+      </c>
+      <c r="X7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44712</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="29">
+        <v>27</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8" t="s">
+        <v>182</v>
+      </c>
+      <c r="X8" s="48">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44713</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="29">
+        <v>26</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" t="s">
+        <v>180</v>
+      </c>
+      <c r="X9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44714</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="29">
+        <v>25</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>177</v>
+      </c>
+      <c r="R10" t="s">
+        <v>83</v>
+      </c>
+      <c r="V10" t="s">
+        <v>181</v>
+      </c>
+      <c r="X10" s="48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44715</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="29">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" t="s">
+        <v>176</v>
+      </c>
+      <c r="V11" t="s">
+        <v>183</v>
+      </c>
+      <c r="W11" t="s">
+        <v>190</v>
+      </c>
+      <c r="X11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44716</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="29">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" t="s">
+        <v>185</v>
+      </c>
+      <c r="X12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44717</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="29">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44718</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="29">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44719</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44720</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44721</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="29">
+        <v>18</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>36</v>
+      </c>
+      <c r="B18" s="8">
+        <v>44722</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>17</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44723</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="29">
+        <v>16</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44724</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="29">
+        <v>15</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44725</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="29">
+        <v>14</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44726</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="29">
+        <v>13</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>31</v>
+      </c>
+      <c r="B23" s="8">
+        <v>44727</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7">
+        <v>12</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>30</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44728</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44729</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44730</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44731</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="29">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44732</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44733</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44734</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44735</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44736</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="29">
+        <v>21</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44737</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="29">
+        <v>20</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44738</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="29">
+        <v>19</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44739</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="29">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E4:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>56</v>
+      </c>
+      <c r="B2" s="24">
+        <v>44702</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="23">
+        <v>37</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>55</v>
+      </c>
+      <c r="B3" s="8">
+        <v>44703</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7">
+        <v>36</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>54</v>
+      </c>
+      <c r="B4" s="8">
+        <v>44704</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44705</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="19">
+        <v>34</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44706</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="19">
+        <v>33</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="46"/>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44707</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="19">
+        <v>32</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="46"/>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44708</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="19">
+        <v>31</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="46"/>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44709</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="19">
+        <v>30</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="46"/>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44710</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="19">
+        <v>29</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44711</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="19">
+        <v>28</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44712</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="19">
+        <v>27</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44713</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="19">
+        <v>26</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44714</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="19">
+        <v>25</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44715</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="19">
+        <v>24</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44716</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="19">
+        <v>23</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44717</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="19">
+        <v>22</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44718</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="19">
+        <v>21</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44719</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="19">
+        <v>20</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44720</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="19">
+        <v>19</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="47"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44721</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="19">
+        <v>18</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>36</v>
+      </c>
+      <c r="B22" s="8">
+        <v>44722</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>17</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44723</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="19">
+        <v>16</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44724</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="19">
+        <v>15</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="41"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>33</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44725</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="19">
+        <v>14</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44726</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="19">
+        <v>13</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>31</v>
+      </c>
+      <c r="B27" s="8">
+        <v>44727</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="7">
+        <v>12</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44728</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="19">
+        <v>11</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44729</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="19">
+        <v>10</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="37"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44730</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="19">
+        <v>9</v>
+      </c>
+      <c r="E30" s="36"/>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>27</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44731</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="19">
+        <v>8</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>26</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44732</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="19">
+        <v>7</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="39"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44733</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="19">
+        <v>6</v>
+      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44734</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="19">
+        <v>5</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>23</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44735</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="19">
+        <v>4</v>
+      </c>
+      <c r="E35" s="36"/>
+      <c r="F35" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>22</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44736</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="19">
+        <v>3</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44737</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="19">
+        <v>2</v>
+      </c>
+      <c r="E37" s="36"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="19">
+        <v>20</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44738</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="19">
+        <v>1</v>
+      </c>
+      <c r="E38" s="36"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>19</v>
+      </c>
+      <c r="B39" s="8">
+        <v>44739</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>18</v>
+      </c>
+      <c r="B40" s="17">
+        <v>44740</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>17</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44741</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>16</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44742</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
+        <v>15</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
+        <v>14</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44744</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>13</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44745</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="19">
+        <v>12</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44746</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
+        <v>11</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44747</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44748</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
+        <v>9</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44749</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="19">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44750</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44751</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44752</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
+        <v>5</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44753</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44754</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="19">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44755</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="19">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44756</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="19">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44757</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
@@ -3112,4 +5404,200 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="73.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resume_avk/.1DevOps.xlsx
+++ b/Resume_avk/.1DevOps.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="190">
   <si>
     <t>Date</t>
   </si>
@@ -533,27 +533,6 @@
     <t>Jenkins backup</t>
   </si>
   <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>Maven, SonarQube</t>
-  </si>
-  <si>
-    <t>Artifactory</t>
-  </si>
-  <si>
-    <t>TRF</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Need to check VPC &amp; S3 &amp; ELB &amp; EC2</t>
-  </si>
-  <si>
     <t>50DQ</t>
   </si>
   <si>
@@ -572,61 +551,43 @@
     <t>Balaji</t>
   </si>
   <si>
-    <t xml:space="preserve">EKS-KALYAN </t>
-  </si>
-  <si>
-    <t>RESUME</t>
-  </si>
-  <si>
-    <t>28, 29, 30</t>
-  </si>
-  <si>
-    <t>1, 2</t>
-  </si>
-  <si>
-    <t>3, 4</t>
-  </si>
-  <si>
-    <t>5, 6, 7</t>
-  </si>
-  <si>
-    <t>IMP Things</t>
-  </si>
-  <si>
-    <t>8, 9 10</t>
-  </si>
-  <si>
-    <t>K8S troubleshooting</t>
-  </si>
-  <si>
-    <t>AWS Ranga till Section 19</t>
-  </si>
-  <si>
-    <t>CKA Course</t>
-  </si>
-  <si>
-    <t>System design by Raj</t>
-  </si>
-  <si>
-    <t>all the files stuff need to write and learn</t>
-  </si>
-  <si>
-    <t>Need to learn all the gitHub</t>
-  </si>
-  <si>
-    <t>DB-N from Docker</t>
-  </si>
-  <si>
-    <t>EKS PD</t>
-  </si>
-  <si>
-    <t>AWS RANGA till Section 19</t>
-  </si>
-  <si>
-    <t>System Design by Raj</t>
-  </si>
-  <si>
-    <t>EKS-Kalyan docker and K8s fundamentals</t>
+    <t>Docker IQS</t>
+  </si>
+  <si>
+    <t>School Start</t>
+  </si>
+  <si>
+    <t>Kids will come/ Resume Upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented New strategy watch 1 hour, prepare notes, study 1 hour. currently my voice is worst and there is no flow. need to improve a lot. </t>
+  </si>
+  <si>
+    <t>DB-N 10 - 15                          CKA-SC                   CKA-N</t>
+  </si>
+  <si>
+    <t>AWS 1 - 19                 GitHub Projects</t>
+  </si>
+  <si>
+    <t>4, 5</t>
+  </si>
+  <si>
+    <t>ST-I</t>
+  </si>
+  <si>
+    <t>8 50 DQ</t>
+  </si>
+  <si>
+    <t>6, 7 DIQS</t>
+  </si>
+  <si>
+    <t>Resume &amp; Manifests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revision </t>
+  </si>
+  <si>
+    <t>Revision Resume Upload</t>
   </si>
 </sst>
 </file>
@@ -762,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -847,6 +808,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -857,24 +834,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -895,9 +854,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1285,7 +1249,7 @@
       <c r="D3" s="7">
         <v>36</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="29"/>
@@ -1315,7 +1279,7 @@
       <c r="D4" s="7">
         <v>35</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="29"/>
       <c r="G4" s="27" t="s">
         <v>85</v>
@@ -1343,11 +1307,11 @@
       <c r="D5" s="7">
         <v>34</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="34" t="s">
         <v>86</v>
       </c>
       <c r="I5" t="s">
@@ -1373,9 +1337,9 @@
       <c r="D6" s="1">
         <v>33</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="39"/>
+      <c r="G6" s="35"/>
       <c r="I6" s="6" t="s">
         <v>144</v>
       </c>
@@ -1399,9 +1363,9 @@
       <c r="D7" s="1">
         <v>32</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="36" t="s">
         <v>87</v>
       </c>
       <c r="I7" t="s">
@@ -1430,9 +1394,9 @@
       <c r="D8" s="1">
         <v>31</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="40"/>
+      <c r="G8" s="36"/>
       <c r="I8" t="s">
         <v>146</v>
       </c>
@@ -1456,7 +1420,7 @@
       <c r="D9" s="1">
         <v>30</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="29"/>
       <c r="G9" s="10" t="s">
         <v>64</v>
@@ -1484,7 +1448,7 @@
       <c r="D10" s="1">
         <v>29</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="33" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="29"/>
@@ -1514,7 +1478,7 @@
       <c r="D11" s="1">
         <v>28</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="29"/>
       <c r="G11" s="37"/>
       <c r="I11" s="6" t="s">
@@ -1534,7 +1498,7 @@
       <c r="D12" s="1">
         <v>27</v>
       </c>
-      <c r="E12" s="36"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="29"/>
       <c r="G12" s="37" t="s">
         <v>89</v>
@@ -1553,7 +1517,7 @@
       <c r="D13" s="1">
         <v>26</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="29"/>
       <c r="G13" s="37"/>
     </row>
@@ -1570,7 +1534,7 @@
       <c r="D14" s="1">
         <v>25</v>
       </c>
-      <c r="E14" s="36"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="29"/>
       <c r="G14" s="11" t="s">
         <v>66</v>
@@ -1589,7 +1553,7 @@
       <c r="D15" s="1">
         <v>24</v>
       </c>
-      <c r="E15" s="36"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="29"/>
       <c r="G15" s="37" t="s">
         <v>90</v>
@@ -1615,7 +1579,7 @@
       <c r="D16" s="1">
         <v>23</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="29"/>
       <c r="G16" s="37"/>
       <c r="H16" s="14"/>
@@ -1638,7 +1602,7 @@
       <c r="D17" s="1">
         <v>22</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="29"/>
@@ -1665,7 +1629,7 @@
       <c r="D18" s="1">
         <v>21</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="29"/>
       <c r="G18" s="37"/>
       <c r="H18" s="12" t="s">
@@ -1693,7 +1657,7 @@
       <c r="D19" s="1">
         <v>20</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="29"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37" t="s">
@@ -1717,7 +1681,7 @@
       <c r="D20" s="1">
         <v>19</v>
       </c>
-      <c r="E20" s="36"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="29"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
@@ -1740,12 +1704,12 @@
       <c r="D21" s="1">
         <v>18</v>
       </c>
-      <c r="E21" s="36"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="29"/>
       <c r="G21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="35"/>
+      <c r="H21" s="41"/>
       <c r="J21" s="6" t="s">
         <v>158</v>
       </c>
@@ -1765,12 +1729,12 @@
       <c r="D22" s="7">
         <v>17</v>
       </c>
-      <c r="E22" s="36"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="35"/>
+      <c r="H22" s="41"/>
       <c r="J22" s="6" t="s">
         <v>159</v>
       </c>
@@ -1790,9 +1754,9 @@
       <c r="D23" s="1">
         <v>16</v>
       </c>
-      <c r="E23" s="36"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="29"/>
-      <c r="G23" s="40"/>
+      <c r="G23" s="36"/>
       <c r="J23" s="6" t="s">
         <v>160</v>
       </c>
@@ -1811,11 +1775,11 @@
       <c r="D24" s="1">
         <v>15</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="33" t="s">
         <v>60</v>
       </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="40"/>
+      <c r="G24" s="36"/>
       <c r="J24" s="6" t="s">
         <v>161</v>
       </c>
@@ -1845,7 +1809,7 @@
       <c r="D25" s="1">
         <v>14</v>
       </c>
-      <c r="E25" s="36"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="29"/>
       <c r="G25" s="12" t="s">
         <v>92</v>
@@ -1867,7 +1831,7 @@
       <c r="D26" s="1">
         <v>13</v>
       </c>
-      <c r="E26" s="36"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="29"/>
       <c r="G26" s="11" t="s">
         <v>93</v>
@@ -1890,7 +1854,7 @@
       <c r="D27" s="7">
         <v>12</v>
       </c>
-      <c r="E27" s="36"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="29"/>
       <c r="G27" s="37" t="s">
         <v>95</v>
@@ -1913,7 +1877,7 @@
       <c r="D28" s="1">
         <v>11</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="29"/>
       <c r="G28" s="37"/>
     </row>
@@ -1930,7 +1894,7 @@
       <c r="D29" s="1">
         <v>10</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="29"/>
       <c r="G29" s="37" t="s">
         <v>96</v>
@@ -1949,7 +1913,7 @@
       <c r="D30" s="1">
         <v>9</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="29"/>
       <c r="G30" s="37"/>
       <c r="J30" s="6" t="s">
@@ -1969,7 +1933,7 @@
       <c r="D31" s="1">
         <v>8</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="33" t="s">
         <v>62</v>
       </c>
       <c r="F31" s="29"/>
@@ -1991,7 +1955,7 @@
       <c r="D32" s="1">
         <v>7</v>
       </c>
-      <c r="E32" s="36"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="29"/>
       <c r="G32" s="16" t="s">
         <v>64</v>
@@ -2013,8 +1977,8 @@
       <c r="D33" s="1">
         <v>6</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="32" t="s">
+      <c r="E33" s="33"/>
+      <c r="F33" s="38" t="s">
         <v>151</v>
       </c>
       <c r="G33" s="37" t="s">
@@ -2040,8 +2004,8 @@
       <c r="D34" s="1">
         <v>5</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="37"/>
       <c r="H34" s="4" t="s">
         <v>70</v>
@@ -2060,8 +2024,8 @@
       <c r="D35" s="1">
         <v>4</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="37"/>
       <c r="H35" s="4" t="s">
         <v>71</v>
@@ -2080,8 +2044,8 @@
       <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="37"/>
       <c r="H36" s="4" t="s">
         <v>72</v>
@@ -2100,8 +2064,8 @@
       <c r="D37" s="1">
         <v>2</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="37"/>
       <c r="H37" s="4" t="s">
         <v>73</v>
@@ -2120,8 +2084,8 @@
       <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="34"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="40"/>
       <c r="G38" s="37"/>
       <c r="H38" s="4" t="s">
         <v>74</v>
@@ -2347,6 +2311,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="E10:E16"/>
     <mergeCell ref="E17:E23"/>
@@ -2359,11 +2328,6 @@
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="G29:G31"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2372,16 +2336,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -2396,712 +2361,558 @@
         <v>3</v>
       </c>
       <c r="D1" s="31"/>
-      <c r="L1" t="s">
-        <v>175</v>
-      </c>
-      <c r="M1" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
-        <v>52</v>
-      </c>
-      <c r="B2" s="3">
-        <v>44706</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="29">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>176</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" t="s">
-        <v>80</v>
-      </c>
-      <c r="X2" s="48">
-        <v>44708</v>
+      <c r="A2" s="7">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8">
+        <v>44709</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>30</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3">
-        <v>44707</v>
+        <v>44710</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="29">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L3" t="s">
-        <v>176</v>
-      </c>
-      <c r="R3" t="s">
-        <v>78</v>
-      </c>
-      <c r="V3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" s="48">
-        <v>44708</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="J3" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="32"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3">
-        <v>44708</v>
+        <v>44711</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="29">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" s="49"/>
-      <c r="F4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K4" t="s">
-        <v>172</v>
-      </c>
-      <c r="R4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" t="s">
-        <v>184</v>
-      </c>
-      <c r="X4" s="48">
-        <v>44708</v>
-      </c>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3">
-        <v>44709</v>
+        <v>44712</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" s="29">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="49"/>
-      <c r="F5" t="s">
-        <v>200</v>
+      <c r="J5" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>173</v>
-      </c>
-      <c r="R5" t="s">
-        <v>80</v>
-      </c>
-      <c r="V5" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" t="s">
-        <v>186</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X5" s="32"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3">
-        <v>44710</v>
+        <v>44713</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" s="29">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" s="49"/>
-      <c r="F6" t="s">
-        <v>201</v>
-      </c>
+      <c r="J6" s="50"/>
       <c r="K6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" t="s">
-        <v>176</v>
-      </c>
-      <c r="R6" t="s">
-        <v>81</v>
-      </c>
-      <c r="V6" t="s">
-        <v>178</v>
-      </c>
-      <c r="X6" s="48">
-        <v>44712</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3">
-        <v>44711</v>
+        <v>44714</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="29">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="49"/>
-      <c r="F7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>176</v>
-      </c>
-      <c r="R7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" t="s">
-        <v>82</v>
-      </c>
-      <c r="V7" t="s">
-        <v>179</v>
-      </c>
-      <c r="X7" t="s">
-        <v>187</v>
-      </c>
+      <c r="J7" s="50"/>
+      <c r="K7" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="X7" s="32"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3">
-        <v>44712</v>
+        <v>44715</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" s="29">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="49"/>
-      <c r="F8" t="s">
-        <v>202</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" t="s">
-        <v>56</v>
-      </c>
-      <c r="V8" t="s">
-        <v>182</v>
-      </c>
-      <c r="X8" s="48">
-        <v>44715</v>
+      <c r="J8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3">
-        <v>44713</v>
+        <v>44716</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" s="29">
-        <v>26</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" t="s">
-        <v>194</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" t="s">
-        <v>180</v>
-      </c>
-      <c r="X9" t="s">
-        <v>188</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3">
-        <v>44714</v>
+        <v>44717</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" s="29">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="49"/>
-      <c r="F10" t="s">
-        <v>192</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" t="s">
-        <v>177</v>
-      </c>
-      <c r="R10" t="s">
-        <v>83</v>
-      </c>
-      <c r="V10" t="s">
-        <v>181</v>
-      </c>
-      <c r="X10" s="48" t="s">
-        <v>189</v>
+      <c r="J10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3">
-        <v>44715</v>
+        <v>44718</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="29">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>196</v>
-      </c>
-      <c r="K11" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" t="s">
-        <v>176</v>
-      </c>
-      <c r="V11" t="s">
-        <v>183</v>
-      </c>
-      <c r="W11" t="s">
-        <v>190</v>
-      </c>
-      <c r="X11" t="s">
-        <v>191</v>
+        <v>21</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="J11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3">
-        <v>44716</v>
+        <v>44719</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D12" s="29">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>197</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" t="s">
-        <v>185</v>
-      </c>
-      <c r="X12">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="J12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3">
-        <v>44717</v>
+        <v>44720</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" s="29">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="J13" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3">
-        <v>44718</v>
+        <v>44721</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14" s="29">
-        <v>21</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="J14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44719</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="29">
-        <v>20</v>
+      <c r="A15" s="7">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8">
+        <v>44722</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>17</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="J15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3">
-        <v>44720</v>
+        <v>44723</v>
       </c>
       <c r="C16" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="29">
+        <v>16</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44724</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="29">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44725</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="29">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44726</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="29">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>31</v>
+      </c>
+      <c r="B20" s="8">
+        <v>44727</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D20" s="7">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44728</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="29">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44729</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="29">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44730</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44731</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44732</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44733</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44734</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="29">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44735</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44736</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44737</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>20</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44738</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3">
-        <v>44721</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="29">
-        <v>18</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>36</v>
-      </c>
-      <c r="B18" s="8">
-        <v>44722</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7">
-        <v>17</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3">
-        <v>44723</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="29">
-        <v>16</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3">
-        <v>44724</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="29">
-        <v>15</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
-        <v>33</v>
-      </c>
-      <c r="B21" s="3">
-        <v>44725</v>
-      </c>
-      <c r="C21" s="29" t="s">
+      <c r="B32" s="3">
+        <v>44739</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="29">
-        <v>14</v>
-      </c>
-      <c r="V21" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
-        <v>32</v>
-      </c>
-      <c r="B22" s="3">
-        <v>44726</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="29">
-        <v>13</v>
-      </c>
-      <c r="V22" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>31</v>
-      </c>
-      <c r="B23" s="8">
-        <v>44727</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7">
-        <v>12</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
-        <v>30</v>
-      </c>
-      <c r="B24" s="3">
-        <v>44728</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
-        <v>29</v>
-      </c>
-      <c r="B25" s="3">
-        <v>44729</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
-        <v>28</v>
-      </c>
-      <c r="B26" s="3">
-        <v>44730</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3">
-        <v>44731</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3">
-        <v>44732</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3">
-        <v>44733</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
-        <v>24</v>
-      </c>
-      <c r="B30" s="3">
-        <v>44734</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
-        <v>23</v>
-      </c>
-      <c r="B31" s="3">
-        <v>44735</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
-        <v>22</v>
-      </c>
-      <c r="B32" s="3">
-        <v>44736</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>4</v>
-      </c>
       <c r="D32" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
-        <v>21</v>
-      </c>
-      <c r="B33" s="3">
-        <v>44737</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
-        <v>20</v>
-      </c>
-      <c r="B34" s="3">
-        <v>44738</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
-        <v>19</v>
-      </c>
-      <c r="B35" s="3">
-        <v>44739</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="29">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E4:E10"/>
+  <mergeCells count="4">
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3345,7 +3156,7 @@
       <c r="D10" s="19">
         <v>29</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="33" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="46"/>
@@ -3369,7 +3180,7 @@
       <c r="D11" s="19">
         <v>28</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3385,8 +3196,8 @@
       <c r="D12" s="19">
         <v>27</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="38" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="34" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3403,8 +3214,8 @@
       <c r="D13" s="19">
         <v>26</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="41"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="48"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -3419,8 +3230,8 @@
       <c r="D14" s="19">
         <v>25</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="39"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -3435,7 +3246,7 @@
       <c r="D15" s="19">
         <v>24</v>
       </c>
-      <c r="E15" s="36"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="45" t="s">
         <v>135</v>
       </c>
@@ -3454,7 +3265,7 @@
       <c r="D16" s="19">
         <v>23</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="47"/>
       <c r="G16" s="21"/>
     </row>
@@ -3471,10 +3282,10 @@
       <c r="D17" s="19">
         <v>22</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="34" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3491,8 +3302,8 @@
       <c r="D18" s="19">
         <v>21</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="39"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -3507,7 +3318,7 @@
       <c r="D19" s="19">
         <v>20</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="45" t="s">
         <v>137</v>
       </c>
@@ -3525,7 +3336,7 @@
       <c r="D20" s="19">
         <v>19</v>
       </c>
-      <c r="E20" s="36"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3541,11 +3352,11 @@
       <c r="D21" s="19">
         <v>18</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="38" t="s">
+      <c r="E21" s="33"/>
+      <c r="F21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="35"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -3560,9 +3371,9 @@
       <c r="D22" s="7">
         <v>17</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="35"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
@@ -3577,8 +3388,8 @@
       <c r="D23" s="19">
         <v>16</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="38" t="s">
+      <c r="E23" s="33"/>
+      <c r="F23" s="34" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3595,10 +3406,10 @@
       <c r="D24" s="19">
         <v>15</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="48"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
@@ -3613,8 +3424,8 @@
       <c r="D25" s="19">
         <v>14</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="39"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
@@ -3629,8 +3440,8 @@
       <c r="D26" s="19">
         <v>13</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="38" t="s">
+      <c r="E26" s="33"/>
+      <c r="F26" s="34" t="s">
         <v>139</v>
       </c>
       <c r="G26" s="12" t="s">
@@ -3650,8 +3461,8 @@
       <c r="D27" s="7">
         <v>12</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="41"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="48"/>
       <c r="G27" s="12" t="s">
         <v>94</v>
       </c>
@@ -3669,8 +3480,8 @@
       <c r="D28" s="19">
         <v>11</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="41"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="37" t="s">
         <v>77</v>
       </c>
@@ -3688,8 +3499,8 @@
       <c r="D29" s="19">
         <v>10</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="41"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="48"/>
       <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3705,8 +3516,8 @@
       <c r="D30" s="19">
         <v>9</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="39"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
@@ -3721,10 +3532,10 @@
       <c r="D31" s="19">
         <v>8</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="34" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3741,8 +3552,8 @@
       <c r="D32" s="19">
         <v>7</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="39"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
@@ -3757,8 +3568,8 @@
       <c r="D33" s="19">
         <v>6</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="38" t="s">
+      <c r="E33" s="33"/>
+      <c r="F33" s="34" t="s">
         <v>140</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -3778,8 +3589,8 @@
       <c r="D34" s="19">
         <v>5</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="39"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="35"/>
       <c r="G34" s="4" t="s">
         <v>70</v>
       </c>
@@ -3797,8 +3608,8 @@
       <c r="D35" s="19">
         <v>4</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="38" t="s">
+      <c r="E35" s="33"/>
+      <c r="F35" s="34" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -3818,8 +3629,8 @@
       <c r="D36" s="19">
         <v>3</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="41"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="48"/>
       <c r="G36" s="4" t="s">
         <v>72</v>
       </c>
@@ -3837,8 +3648,8 @@
       <c r="D37" s="19">
         <v>2</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="41"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="48"/>
       <c r="G37" s="4" t="s">
         <v>73</v>
       </c>
@@ -3856,8 +3667,8 @@
       <c r="D38" s="19">
         <v>1</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="39"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="4" t="s">
         <v>74</v>
       </c>
@@ -4079,6 +3890,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F38"/>
     <mergeCell ref="E10:E16"/>
     <mergeCell ref="E17:E23"/>
     <mergeCell ref="E5:E9"/>
@@ -4091,12 +3908,6 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resume_avk/.1DevOps.xlsx
+++ b/Resume_avk/.1DevOps.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="190">
   <si>
     <t>Date</t>
   </si>
@@ -836,6 +836,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,12 +862,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:O10"/>
+      <selection activeCell="D36" sqref="D11:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,7 +2339,7 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D4" sqref="D4:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,7 +2375,7 @@
       <c r="D2" s="7">
         <v>30</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="42" t="s">
         <v>181</v>
       </c>
       <c r="F2" t="s">
@@ -2395,9 +2395,9 @@
       <c r="D3" s="29">
         <v>29</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="J3" s="50" t="s">
-        <v>31</v>
+      <c r="E3" s="42"/>
+      <c r="J3" s="43" t="s">
+        <v>28</v>
       </c>
       <c r="X3" s="32"/>
     </row>
@@ -2414,8 +2414,8 @@
       <c r="D4" s="29">
         <v>28</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="E4" s="42"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
@@ -2430,10 +2430,8 @@
       <c r="D5" s="29">
         <v>27</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="J5" s="50" t="s">
-        <v>28</v>
-      </c>
+      <c r="E5" s="42"/>
+      <c r="J5" s="43"/>
       <c r="K5" t="s">
         <v>183</v>
       </c>
@@ -2452,8 +2450,8 @@
       <c r="D6" s="29">
         <v>26</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="J6" s="50"/>
+      <c r="E6" s="42"/>
+      <c r="J6" s="43"/>
       <c r="K6" t="s">
         <v>186</v>
       </c>
@@ -2471,8 +2469,8 @@
       <c r="D7" s="29">
         <v>25</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="J7" s="50"/>
+      <c r="E7" s="42"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="28" t="s">
         <v>185</v>
       </c>
@@ -2491,7 +2489,7 @@
       <c r="D8" s="29">
         <v>24</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="42"/>
       <c r="J8" t="s">
         <v>184</v>
       </c>
@@ -2509,7 +2507,7 @@
       <c r="D9" s="29">
         <v>23</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="42" t="s">
         <v>182</v>
       </c>
       <c r="J9" t="s">
@@ -2529,7 +2527,7 @@
       <c r="D10" s="29">
         <v>22</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="42"/>
       <c r="J10" t="s">
         <v>172</v>
       </c>
@@ -2547,7 +2545,7 @@
       <c r="D11" s="29">
         <v>21</v>
       </c>
-      <c r="E11" s="49"/>
+      <c r="E11" s="42"/>
       <c r="J11" t="s">
         <v>187</v>
       </c>
@@ -2565,7 +2563,7 @@
       <c r="D12" s="29">
         <v>20</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="J12" t="s">
         <v>187</v>
       </c>
@@ -2583,7 +2581,7 @@
       <c r="D13" s="29">
         <v>19</v>
       </c>
-      <c r="E13" s="49"/>
+      <c r="E13" s="42"/>
       <c r="J13" t="s">
         <v>174</v>
       </c>
@@ -2601,7 +2599,7 @@
       <c r="D14" s="29">
         <v>18</v>
       </c>
-      <c r="E14" s="49"/>
+      <c r="E14" s="42"/>
       <c r="J14" t="s">
         <v>174</v>
       </c>
@@ -2619,7 +2617,7 @@
       <c r="D15" s="7">
         <v>17</v>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="42"/>
       <c r="J15" t="s">
         <v>174</v>
       </c>
@@ -2908,11 +2906,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="E2:E8"/>
     <mergeCell ref="E9:E15"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J3:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3039,10 +3036,10 @@
       <c r="D5" s="19">
         <v>34</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="47" t="s">
         <v>134</v>
       </c>
       <c r="I5">
@@ -3065,8 +3062,8 @@
       <c r="D6" s="19">
         <v>33</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="46"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="48"/>
       <c r="I6">
         <v>5</v>
       </c>
@@ -3087,8 +3084,8 @@
       <c r="D7" s="19">
         <v>32</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="46"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="48"/>
       <c r="I7">
         <v>6</v>
       </c>
@@ -3112,8 +3109,8 @@
       <c r="D8" s="19">
         <v>31</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="46"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="48"/>
       <c r="I8">
         <v>7</v>
       </c>
@@ -3134,8 +3131,8 @@
       <c r="D9" s="19">
         <v>30</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="48"/>
       <c r="I9">
         <v>8</v>
       </c>
@@ -3159,7 +3156,7 @@
       <c r="E10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="48"/>
       <c r="I10">
         <v>9</v>
       </c>
@@ -3181,7 +3178,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="33"/>
-      <c r="F11" s="47"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -3215,7 +3212,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="33"/>
-      <c r="F13" s="48"/>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -3247,7 +3244,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="33"/>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="47" t="s">
         <v>135</v>
       </c>
       <c r="G15" s="20"/>
@@ -3266,7 +3263,7 @@
         <v>23</v>
       </c>
       <c r="E16" s="33"/>
-      <c r="F16" s="47"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3319,7 +3316,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="33"/>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="47" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3337,7 +3334,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="33"/>
-      <c r="F20" s="47"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -3409,7 +3406,7 @@
       <c r="E24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="48"/>
+      <c r="F24" s="50"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
@@ -3462,7 +3459,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="33"/>
-      <c r="F27" s="48"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="12" t="s">
         <v>94</v>
       </c>
@@ -3481,7 +3478,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="33"/>
-      <c r="F28" s="48"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="37" t="s">
         <v>77</v>
       </c>
@@ -3500,7 +3497,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="33"/>
-      <c r="F29" s="48"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3630,7 +3627,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="33"/>
-      <c r="F36" s="48"/>
+      <c r="F36" s="50"/>
       <c r="G36" s="4" t="s">
         <v>72</v>
       </c>
@@ -3649,7 +3646,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="33"/>
-      <c r="F37" s="48"/>
+      <c r="F37" s="50"/>
       <c r="G37" s="4" t="s">
         <v>73</v>
       </c>

--- a/Resume_avk/.1DevOps.xlsx
+++ b/Resume_avk/.1DevOps.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="194">
   <si>
     <t>Date</t>
   </si>
@@ -569,18 +569,9 @@
     <t>AWS 1 - 19                 GitHub Projects</t>
   </si>
   <si>
-    <t>4, 5</t>
-  </si>
-  <si>
     <t>ST-I</t>
   </si>
   <si>
-    <t>8 50 DQ</t>
-  </si>
-  <si>
-    <t>6, 7 DIQS</t>
-  </si>
-  <si>
     <t>Resume &amp; Manifests</t>
   </si>
   <si>
@@ -588,6 +579,27 @@
   </si>
   <si>
     <t>Revision Resume Upload</t>
+  </si>
+  <si>
+    <t>ST-I, DT-IQ</t>
+  </si>
+  <si>
+    <t>Deekshit/Raj</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>DB-N from K8s/CKA-N</t>
+  </si>
+  <si>
+    <t>50 DevOps</t>
+  </si>
+  <si>
+    <t>DevOps Proj, Manifests</t>
+  </si>
+  <si>
+    <t>Resume Questions</t>
   </si>
 </sst>
 </file>
@@ -723,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -809,21 +821,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -836,11 +833,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,9 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,7 +1262,7 @@
       <c r="D3" s="7">
         <v>36</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="37" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="29"/>
@@ -1279,7 +1292,7 @@
       <c r="D4" s="7">
         <v>35</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="29"/>
       <c r="G4" s="27" t="s">
         <v>85</v>
@@ -1307,11 +1320,11 @@
       <c r="D5" s="7">
         <v>34</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="39" t="s">
         <v>86</v>
       </c>
       <c r="I5" t="s">
@@ -1337,9 +1350,9 @@
       <c r="D6" s="1">
         <v>33</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="35"/>
+      <c r="G6" s="40"/>
       <c r="I6" s="6" t="s">
         <v>144</v>
       </c>
@@ -1363,9 +1376,9 @@
       <c r="D7" s="1">
         <v>32</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="41" t="s">
         <v>87</v>
       </c>
       <c r="I7" t="s">
@@ -1394,9 +1407,9 @@
       <c r="D8" s="1">
         <v>31</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="36"/>
+      <c r="G8" s="41"/>
       <c r="I8" t="s">
         <v>146</v>
       </c>
@@ -1420,7 +1433,7 @@
       <c r="D9" s="1">
         <v>30</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="29"/>
       <c r="G9" s="10" t="s">
         <v>64</v>
@@ -1448,11 +1461,11 @@
       <c r="D10" s="1">
         <v>29</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="29"/>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="38" t="s">
         <v>88</v>
       </c>
       <c r="I10" t="s">
@@ -1478,9 +1491,9 @@
       <c r="D11" s="1">
         <v>28</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="38"/>
       <c r="I11" s="6" t="s">
         <v>149</v>
       </c>
@@ -1498,9 +1511,9 @@
       <c r="D12" s="1">
         <v>27</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="38" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1517,9 +1530,9 @@
       <c r="D13" s="1">
         <v>26</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1534,7 +1547,7 @@
       <c r="D14" s="1">
         <v>25</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="29"/>
       <c r="G14" s="11" t="s">
         <v>66</v>
@@ -1553,9 +1566,9 @@
       <c r="D15" s="1">
         <v>24</v>
       </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="38" t="s">
         <v>90</v>
       </c>
       <c r="H15" s="13"/>
@@ -1579,9 +1592,9 @@
       <c r="D16" s="1">
         <v>23</v>
       </c>
-      <c r="E16" s="33"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="37"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="14"/>
       <c r="J16" s="6" t="s">
         <v>152</v>
@@ -1602,11 +1615,11 @@
       <c r="D17" s="1">
         <v>22</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="37" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="37"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="12" t="s">
         <v>67</v>
       </c>
@@ -1629,9 +1642,9 @@
       <c r="D18" s="1">
         <v>21</v>
       </c>
-      <c r="E18" s="33"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="37"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="12" t="s">
         <v>94</v>
       </c>
@@ -1657,10 +1670,10 @@
       <c r="D19" s="1">
         <v>20</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37" t="s">
+      <c r="G19" s="38"/>
+      <c r="H19" s="38" t="s">
         <v>77</v>
       </c>
       <c r="J19" s="6" t="s">
@@ -1681,10 +1694,10 @@
       <c r="D20" s="1">
         <v>19</v>
       </c>
-      <c r="E20" s="33"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
       <c r="J20" s="6" t="s">
         <v>157</v>
       </c>
@@ -1704,12 +1717,12 @@
       <c r="D21" s="1">
         <v>18</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="29"/>
       <c r="G21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="41"/>
+      <c r="H21" s="36"/>
       <c r="J21" s="6" t="s">
         <v>158</v>
       </c>
@@ -1729,12 +1742,12 @@
       <c r="D22" s="7">
         <v>17</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="41"/>
+      <c r="H22" s="36"/>
       <c r="J22" s="6" t="s">
         <v>159</v>
       </c>
@@ -1754,9 +1767,9 @@
       <c r="D23" s="1">
         <v>16</v>
       </c>
-      <c r="E23" s="33"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="29"/>
-      <c r="G23" s="36"/>
+      <c r="G23" s="41"/>
       <c r="J23" s="6" t="s">
         <v>160</v>
       </c>
@@ -1775,11 +1788,11 @@
       <c r="D24" s="1">
         <v>15</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="37" t="s">
         <v>60</v>
       </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="36"/>
+      <c r="G24" s="41"/>
       <c r="J24" s="6" t="s">
         <v>161</v>
       </c>
@@ -1809,7 +1822,7 @@
       <c r="D25" s="1">
         <v>14</v>
       </c>
-      <c r="E25" s="33"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="29"/>
       <c r="G25" s="12" t="s">
         <v>92</v>
@@ -1831,7 +1844,7 @@
       <c r="D26" s="1">
         <v>13</v>
       </c>
-      <c r="E26" s="33"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="29"/>
       <c r="G26" s="11" t="s">
         <v>93</v>
@@ -1854,9 +1867,9 @@
       <c r="D27" s="7">
         <v>12</v>
       </c>
-      <c r="E27" s="33"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="29"/>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="38" t="s">
         <v>95</v>
       </c>
       <c r="J27" s="6" t="s">
@@ -1877,9 +1890,9 @@
       <c r="D28" s="1">
         <v>11</v>
       </c>
-      <c r="E28" s="33"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="29"/>
-      <c r="G28" s="37"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1894,9 +1907,9 @@
       <c r="D29" s="1">
         <v>10</v>
       </c>
-      <c r="E29" s="33"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="29"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="38" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1913,9 +1926,9 @@
       <c r="D30" s="1">
         <v>9</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="29"/>
-      <c r="G30" s="37"/>
+      <c r="G30" s="38"/>
       <c r="J30" s="6" t="s">
         <v>164</v>
       </c>
@@ -1933,11 +1946,11 @@
       <c r="D31" s="1">
         <v>8</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="37" t="s">
         <v>62</v>
       </c>
       <c r="F31" s="29"/>
-      <c r="G31" s="37"/>
+      <c r="G31" s="38"/>
       <c r="J31" s="6" t="s">
         <v>169</v>
       </c>
@@ -1955,7 +1968,7 @@
       <c r="D32" s="1">
         <v>7</v>
       </c>
-      <c r="E32" s="33"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="29"/>
       <c r="G32" s="16" t="s">
         <v>64</v>
@@ -1977,11 +1990,11 @@
       <c r="D33" s="1">
         <v>6</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="38" t="s">
+      <c r="E33" s="37"/>
+      <c r="F33" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="38" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -2004,9 +2017,9 @@
       <c r="D34" s="1">
         <v>5</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="38"/>
       <c r="H34" s="4" t="s">
         <v>70</v>
       </c>
@@ -2024,9 +2037,9 @@
       <c r="D35" s="1">
         <v>4</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="38"/>
       <c r="H35" s="4" t="s">
         <v>71</v>
       </c>
@@ -2044,9 +2057,9 @@
       <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="4" t="s">
         <v>72</v>
       </c>
@@ -2064,9 +2077,9 @@
       <c r="D37" s="1">
         <v>2</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="38"/>
       <c r="H37" s="4" t="s">
         <v>73</v>
       </c>
@@ -2084,9 +2097,9 @@
       <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="38"/>
       <c r="H38" s="4" t="s">
         <v>74</v>
       </c>
@@ -2311,11 +2324,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="H19:H20"/>
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="E10:E16"/>
     <mergeCell ref="E17:E23"/>
@@ -2328,6 +2336,11 @@
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2339,7 +2352,7 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D18"/>
+      <selection activeCell="L11" sqref="L11:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,6 +2361,7 @@
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2399,6 +2413,9 @@
       <c r="J3" s="43" t="s">
         <v>28</v>
       </c>
+      <c r="K3" s="6">
+        <v>8</v>
+      </c>
       <c r="X3" s="32"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -2416,6 +2433,12 @@
       </c>
       <c r="E4" s="42"/>
       <c r="J4" s="43"/>
+      <c r="K4" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
@@ -2433,7 +2456,10 @@
       <c r="E5" s="42"/>
       <c r="J5" s="43"/>
       <c r="K5" t="s">
-        <v>183</v>
+        <v>190</v>
+      </c>
+      <c r="L5" t="s">
+        <v>192</v>
       </c>
       <c r="X5" s="32"/>
     </row>
@@ -2453,7 +2479,10 @@
       <c r="E6" s="42"/>
       <c r="J6" s="43"/>
       <c r="K6" t="s">
-        <v>186</v>
+        <v>190</v>
+      </c>
+      <c r="L6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2471,8 +2500,11 @@
       </c>
       <c r="E7" s="42"/>
       <c r="J7" s="43"/>
-      <c r="K7" s="28" t="s">
-        <v>185</v>
+      <c r="K7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" t="s">
+        <v>193</v>
       </c>
       <c r="X7" s="32"/>
     </row>
@@ -2491,7 +2523,13 @@
       </c>
       <c r="E8" s="42"/>
       <c r="J8" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -2513,6 +2551,12 @@
       <c r="J9" t="s">
         <v>172</v>
       </c>
+      <c r="K9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
@@ -2531,6 +2575,12 @@
       <c r="J10" t="s">
         <v>172</v>
       </c>
+      <c r="K10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
@@ -2546,8 +2596,11 @@
         <v>21</v>
       </c>
       <c r="E11" s="42"/>
-      <c r="J11" t="s">
-        <v>187</v>
+      <c r="K11" t="s">
+        <v>188</v>
+      </c>
+      <c r="L11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -2564,8 +2617,11 @@
         <v>20</v>
       </c>
       <c r="E12" s="42"/>
-      <c r="J12" t="s">
-        <v>187</v>
+      <c r="K12" t="s">
+        <v>188</v>
+      </c>
+      <c r="L12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -2582,8 +2638,11 @@
         <v>19</v>
       </c>
       <c r="E13" s="42"/>
-      <c r="J13" t="s">
-        <v>174</v>
+      <c r="K13" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -2600,8 +2659,11 @@
         <v>18</v>
       </c>
       <c r="E14" s="42"/>
-      <c r="J14" t="s">
-        <v>174</v>
+      <c r="K14" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2618,8 +2680,8 @@
         <v>17</v>
       </c>
       <c r="E15" s="42"/>
-      <c r="J15" t="s">
-        <v>174</v>
+      <c r="K15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -2641,11 +2703,11 @@
       <c r="G16" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="J16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>34</v>
       </c>
@@ -2664,8 +2726,11 @@
       <c r="J17" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>33</v>
       </c>
@@ -2684,8 +2749,11 @@
       <c r="J18" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>32</v>
       </c>
@@ -2702,10 +2770,13 @@
         <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>31</v>
       </c>
@@ -2725,10 +2796,13 @@
         <v>173</v>
       </c>
       <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>30</v>
       </c>
@@ -2748,7 +2822,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>29</v>
       </c>
@@ -2765,7 +2839,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>28</v>
       </c>
@@ -2779,7 +2853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>27</v>
       </c>
@@ -2793,7 +2867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>26</v>
       </c>
@@ -2807,7 +2881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -2821,7 +2895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>24</v>
       </c>
@@ -2835,7 +2909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>23</v>
       </c>
@@ -2849,7 +2923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>22</v>
       </c>
@@ -2863,7 +2937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>21</v>
       </c>
@@ -2877,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>20</v>
       </c>
@@ -2891,7 +2965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>19</v>
       </c>
@@ -3036,10 +3110,10 @@
       <c r="D5" s="19">
         <v>34</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="48" t="s">
         <v>134</v>
       </c>
       <c r="I5">
@@ -3062,8 +3136,8 @@
       <c r="D6" s="19">
         <v>33</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="48"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="49"/>
       <c r="I6">
         <v>5</v>
       </c>
@@ -3084,8 +3158,8 @@
       <c r="D7" s="19">
         <v>32</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="48"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="49"/>
       <c r="I7">
         <v>6</v>
       </c>
@@ -3109,8 +3183,8 @@
       <c r="D8" s="19">
         <v>31</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="48"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="49"/>
       <c r="I8">
         <v>7</v>
       </c>
@@ -3131,8 +3205,8 @@
       <c r="D9" s="19">
         <v>30</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="48"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="49"/>
       <c r="I9">
         <v>8</v>
       </c>
@@ -3153,10 +3227,10 @@
       <c r="D10" s="19">
         <v>29</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="49"/>
       <c r="I10">
         <v>9</v>
       </c>
@@ -3177,8 +3251,8 @@
       <c r="D11" s="19">
         <v>28</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="49"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="50"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -3193,8 +3267,8 @@
       <c r="D12" s="19">
         <v>27</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="39" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3211,8 +3285,8 @@
       <c r="D13" s="19">
         <v>26</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="50"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="44"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -3227,8 +3301,8 @@
       <c r="D14" s="19">
         <v>25</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="35"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -3243,8 +3317,8 @@
       <c r="D15" s="19">
         <v>24</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="47" t="s">
+      <c r="E15" s="37"/>
+      <c r="F15" s="48" t="s">
         <v>135</v>
       </c>
       <c r="G15" s="20"/>
@@ -3262,8 +3336,8 @@
       <c r="D16" s="19">
         <v>23</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="49"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3279,10 +3353,10 @@
       <c r="D17" s="19">
         <v>22</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="39" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3299,8 +3373,8 @@
       <c r="D18" s="19">
         <v>21</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="35"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -3315,8 +3389,8 @@
       <c r="D19" s="19">
         <v>20</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="47" t="s">
+      <c r="E19" s="37"/>
+      <c r="F19" s="48" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3333,8 +3407,8 @@
       <c r="D20" s="19">
         <v>19</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="49"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="50"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -3349,11 +3423,11 @@
       <c r="D21" s="19">
         <v>18</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34" t="s">
+      <c r="E21" s="37"/>
+      <c r="F21" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="41"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -3368,9 +3442,9 @@
       <c r="D22" s="7">
         <v>17</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="41"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
@@ -3385,8 +3459,8 @@
       <c r="D23" s="19">
         <v>16</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34" t="s">
+      <c r="E23" s="37"/>
+      <c r="F23" s="39" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3403,10 +3477,10 @@
       <c r="D24" s="19">
         <v>15</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="50"/>
+      <c r="F24" s="44"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
@@ -3421,8 +3495,8 @@
       <c r="D25" s="19">
         <v>14</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="35"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
@@ -3437,8 +3511,8 @@
       <c r="D26" s="19">
         <v>13</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34" t="s">
+      <c r="E26" s="37"/>
+      <c r="F26" s="39" t="s">
         <v>139</v>
       </c>
       <c r="G26" s="12" t="s">
@@ -3458,8 +3532,8 @@
       <c r="D27" s="7">
         <v>12</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="50"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="12" t="s">
         <v>94</v>
       </c>
@@ -3477,9 +3551,9 @@
       <c r="D28" s="19">
         <v>11</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="37" t="s">
+      <c r="E28" s="37"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="38" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3496,9 +3570,9 @@
       <c r="D29" s="19">
         <v>10</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="38"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
@@ -3513,8 +3587,8 @@
       <c r="D30" s="19">
         <v>9</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="35"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
@@ -3529,10 +3603,10 @@
       <c r="D31" s="19">
         <v>8</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="39" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3549,8 +3623,8 @@
       <c r="D32" s="19">
         <v>7</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="35"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
@@ -3565,8 +3639,8 @@
       <c r="D33" s="19">
         <v>6</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34" t="s">
+      <c r="E33" s="37"/>
+      <c r="F33" s="39" t="s">
         <v>140</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -3586,8 +3660,8 @@
       <c r="D34" s="19">
         <v>5</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="35"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="4" t="s">
         <v>70</v>
       </c>
@@ -3605,8 +3679,8 @@
       <c r="D35" s="19">
         <v>4</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34" t="s">
+      <c r="E35" s="37"/>
+      <c r="F35" s="39" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -3626,8 +3700,8 @@
       <c r="D36" s="19">
         <v>3</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="50"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="4" t="s">
         <v>72</v>
       </c>
@@ -3645,8 +3719,8 @@
       <c r="D37" s="19">
         <v>2</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="50"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="44"/>
       <c r="G37" s="4" t="s">
         <v>73</v>
       </c>
@@ -3664,8 +3738,8 @@
       <c r="D38" s="19">
         <v>1</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="35"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="40"/>
       <c r="G38" s="4" t="s">
         <v>74</v>
       </c>
@@ -3887,12 +3961,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F38"/>
     <mergeCell ref="E10:E16"/>
     <mergeCell ref="E17:E23"/>
     <mergeCell ref="E5:E9"/>
@@ -3905,6 +3973,12 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resume_avk/.1DevOps.xlsx
+++ b/Resume_avk/.1DevOps.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="214">
   <si>
     <t>Date</t>
   </si>
@@ -533,27 +534,12 @@
     <t>Jenkins backup</t>
   </si>
   <si>
-    <t>50DQ</t>
-  </si>
-  <si>
     <t>DT-IQ</t>
   </si>
   <si>
-    <t>CWRAJ</t>
-  </si>
-  <si>
     <t>Deekshit</t>
   </si>
   <si>
-    <t>STI</t>
-  </si>
-  <si>
-    <t>Balaji</t>
-  </si>
-  <si>
-    <t>Docker IQS</t>
-  </si>
-  <si>
     <t>School Start</t>
   </si>
   <si>
@@ -596,10 +582,85 @@
     <t>50 DevOps</t>
   </si>
   <si>
-    <t>DevOps Proj, Manifests</t>
-  </si>
-  <si>
-    <t>Resume Questions</t>
+    <t>50 DevOps AWS (1-19)</t>
+  </si>
+  <si>
+    <t>Resume Prep &amp; Manifests</t>
+  </si>
+  <si>
+    <t>AWS/DB-N</t>
+  </si>
+  <si>
+    <t>Own interview frame</t>
+  </si>
+  <si>
+    <t>Start, linux, git</t>
+  </si>
+  <si>
+    <t>git maven, artifactory, jenkins</t>
+  </si>
+  <si>
+    <t>jenkins, docker, k8s</t>
+  </si>
+  <si>
+    <t>k8s, eks, cka</t>
+  </si>
+  <si>
+    <t>cka, python</t>
+  </si>
+  <si>
+    <t>ansible, prometheus</t>
+  </si>
+  <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>aws, terraform</t>
+  </si>
+  <si>
+    <t>Project Demo, First, Explain CICD</t>
+  </si>
+  <si>
+    <t>CKA, Analyse which topics not covered?</t>
+  </si>
+  <si>
+    <t>DPT CICD Project</t>
+  </si>
+  <si>
+    <t>ST-IQ</t>
+  </si>
+  <si>
+    <t>TRF</t>
+  </si>
+  <si>
+    <t>Logical Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPT CICD Project, ST-IQ, </t>
+  </si>
+  <si>
+    <t>DPTCICD, PYD-IQ</t>
+  </si>
+  <si>
+    <t>DT-IQ-ALL - 5</t>
+  </si>
+  <si>
+    <t>DT-IQ-ALL - 10</t>
+  </si>
+  <si>
+    <t>Resume-Questions - GH</t>
+  </si>
+  <si>
+    <t>Deekshit-N IQS</t>
+  </si>
+  <si>
+    <t>AWS-RAJ</t>
+  </si>
+  <si>
+    <t>TTT-K8S-IQS</t>
+  </si>
+  <si>
+    <t>Deekshit-N IQS, TRF</t>
   </si>
 </sst>
 </file>
@@ -735,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,6 +882,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -875,7 +940,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1262,7 +1326,7 @@
       <c r="D3" s="7">
         <v>36</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="39" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="29"/>
@@ -1292,7 +1356,7 @@
       <c r="D4" s="7">
         <v>35</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="29"/>
       <c r="G4" s="27" t="s">
         <v>85</v>
@@ -1320,11 +1384,11 @@
       <c r="D5" s="7">
         <v>34</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="41" t="s">
         <v>86</v>
       </c>
       <c r="I5" t="s">
@@ -1350,9 +1414,9 @@
       <c r="D6" s="1">
         <v>33</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="40"/>
+      <c r="G6" s="42"/>
       <c r="I6" s="6" t="s">
         <v>144</v>
       </c>
@@ -1376,9 +1440,9 @@
       <c r="D7" s="1">
         <v>32</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="43" t="s">
         <v>87</v>
       </c>
       <c r="I7" t="s">
@@ -1407,9 +1471,9 @@
       <c r="D8" s="1">
         <v>31</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="41"/>
+      <c r="G8" s="43"/>
       <c r="I8" t="s">
         <v>146</v>
       </c>
@@ -1433,7 +1497,7 @@
       <c r="D9" s="1">
         <v>30</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="29"/>
       <c r="G9" s="10" t="s">
         <v>64</v>
@@ -1461,11 +1525,11 @@
       <c r="D10" s="1">
         <v>29</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="29"/>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="40" t="s">
         <v>88</v>
       </c>
       <c r="I10" t="s">
@@ -1491,9 +1555,9 @@
       <c r="D11" s="1">
         <v>28</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="40"/>
       <c r="I11" s="6" t="s">
         <v>149</v>
       </c>
@@ -1511,9 +1575,9 @@
       <c r="D12" s="1">
         <v>27</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="40" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1530,9 +1594,9 @@
       <c r="D13" s="1">
         <v>26</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1547,7 +1611,7 @@
       <c r="D14" s="1">
         <v>25</v>
       </c>
-      <c r="E14" s="37"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="29"/>
       <c r="G14" s="11" t="s">
         <v>66</v>
@@ -1566,9 +1630,9 @@
       <c r="D15" s="1">
         <v>24</v>
       </c>
-      <c r="E15" s="37"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="40" t="s">
         <v>90</v>
       </c>
       <c r="H15" s="13"/>
@@ -1592,9 +1656,9 @@
       <c r="D16" s="1">
         <v>23</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="38"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="14"/>
       <c r="J16" s="6" t="s">
         <v>152</v>
@@ -1615,11 +1679,11 @@
       <c r="D17" s="1">
         <v>22</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="38"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="12" t="s">
         <v>67</v>
       </c>
@@ -1642,9 +1706,9 @@
       <c r="D18" s="1">
         <v>21</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="38"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="12" t="s">
         <v>94</v>
       </c>
@@ -1670,10 +1734,10 @@
       <c r="D19" s="1">
         <v>20</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38" t="s">
+      <c r="G19" s="40"/>
+      <c r="H19" s="40" t="s">
         <v>77</v>
       </c>
       <c r="J19" s="6" t="s">
@@ -1694,10 +1758,10 @@
       <c r="D20" s="1">
         <v>19</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
       <c r="J20" s="6" t="s">
         <v>157</v>
       </c>
@@ -1717,12 +1781,12 @@
       <c r="D21" s="1">
         <v>18</v>
       </c>
-      <c r="E21" s="37"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="29"/>
       <c r="G21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="36"/>
+      <c r="H21" s="38"/>
       <c r="J21" s="6" t="s">
         <v>158</v>
       </c>
@@ -1742,12 +1806,12 @@
       <c r="D22" s="7">
         <v>17</v>
       </c>
-      <c r="E22" s="37"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="36"/>
+      <c r="H22" s="38"/>
       <c r="J22" s="6" t="s">
         <v>159</v>
       </c>
@@ -1767,9 +1831,9 @@
       <c r="D23" s="1">
         <v>16</v>
       </c>
-      <c r="E23" s="37"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="29"/>
-      <c r="G23" s="41"/>
+      <c r="G23" s="43"/>
       <c r="J23" s="6" t="s">
         <v>160</v>
       </c>
@@ -1788,11 +1852,11 @@
       <c r="D24" s="1">
         <v>15</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="39" t="s">
         <v>60</v>
       </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="41"/>
+      <c r="G24" s="43"/>
       <c r="J24" s="6" t="s">
         <v>161</v>
       </c>
@@ -1822,7 +1886,7 @@
       <c r="D25" s="1">
         <v>14</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="29"/>
       <c r="G25" s="12" t="s">
         <v>92</v>
@@ -1844,7 +1908,7 @@
       <c r="D26" s="1">
         <v>13</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="29"/>
       <c r="G26" s="11" t="s">
         <v>93</v>
@@ -1867,9 +1931,9 @@
       <c r="D27" s="7">
         <v>12</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="29"/>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="40" t="s">
         <v>95</v>
       </c>
       <c r="J27" s="6" t="s">
@@ -1890,9 +1954,9 @@
       <c r="D28" s="1">
         <v>11</v>
       </c>
-      <c r="E28" s="37"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="29"/>
-      <c r="G28" s="38"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1907,9 +1971,9 @@
       <c r="D29" s="1">
         <v>10</v>
       </c>
-      <c r="E29" s="37"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="29"/>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="40" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1926,9 +1990,9 @@
       <c r="D30" s="1">
         <v>9</v>
       </c>
-      <c r="E30" s="37"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="29"/>
-      <c r="G30" s="38"/>
+      <c r="G30" s="40"/>
       <c r="J30" s="6" t="s">
         <v>164</v>
       </c>
@@ -1946,11 +2010,11 @@
       <c r="D31" s="1">
         <v>8</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="39" t="s">
         <v>62</v>
       </c>
       <c r="F31" s="29"/>
-      <c r="G31" s="38"/>
+      <c r="G31" s="40"/>
       <c r="J31" s="6" t="s">
         <v>169</v>
       </c>
@@ -1968,7 +2032,7 @@
       <c r="D32" s="1">
         <v>7</v>
       </c>
-      <c r="E32" s="37"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="29"/>
       <c r="G32" s="16" t="s">
         <v>64</v>
@@ -1990,11 +2054,11 @@
       <c r="D33" s="1">
         <v>6</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="33" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="40" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -2017,9 +2081,9 @@
       <c r="D34" s="1">
         <v>5</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="40"/>
       <c r="H34" s="4" t="s">
         <v>70</v>
       </c>
@@ -2037,9 +2101,9 @@
       <c r="D35" s="1">
         <v>4</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="4" t="s">
         <v>71</v>
       </c>
@@ -2057,9 +2121,9 @@
       <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="40"/>
       <c r="H36" s="4" t="s">
         <v>72</v>
       </c>
@@ -2077,9 +2141,9 @@
       <c r="D37" s="1">
         <v>2</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="40"/>
       <c r="H37" s="4" t="s">
         <v>73</v>
       </c>
@@ -2097,9 +2161,9 @@
       <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="38"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="40"/>
       <c r="H38" s="4" t="s">
         <v>74</v>
       </c>
@@ -2351,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,7 +2425,7 @@
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2389,11 +2453,11 @@
       <c r="D2" s="7">
         <v>30</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>181</v>
+      <c r="E2" s="44" t="s">
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -2409,8 +2473,8 @@
       <c r="D3" s="29">
         <v>29</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="J3" s="43" t="s">
+      <c r="E3" s="44"/>
+      <c r="J3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="6">
@@ -2431,13 +2495,16 @@
       <c r="D4" s="29">
         <v>28</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="51" t="s">
-        <v>191</v>
+      <c r="E4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="L4" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -2453,13 +2520,22 @@
       <c r="D5" s="29">
         <v>27</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="45"/>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L5" t="s">
-        <v>192</v>
+        <v>189</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
       </c>
       <c r="X5" s="32"/>
     </row>
@@ -2476,13 +2552,22 @@
       <c r="D6" s="29">
         <v>26</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="J6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="J6" s="45"/>
       <c r="K6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L6" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>199</v>
+      </c>
+      <c r="U6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2498,13 +2583,25 @@
       <c r="D7" s="29">
         <v>25</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="J7" s="45"/>
       <c r="K7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L7" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>182</v>
+      </c>
+      <c r="U7" t="s">
+        <v>202</v>
       </c>
       <c r="X7" s="32"/>
     </row>
@@ -2521,15 +2618,27 @@
       <c r="D8" s="29">
         <v>24</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="44"/>
       <c r="J8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L8" t="s">
-        <v>193</v>
+        <v>31</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>182</v>
+      </c>
+      <c r="U8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -2545,17 +2654,29 @@
       <c r="D9" s="29">
         <v>23</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" t="s">
         <v>182</v>
       </c>
-      <c r="J9" t="s">
-        <v>172</v>
-      </c>
-      <c r="K9" t="s">
-        <v>184</v>
-      </c>
-      <c r="L9" t="s">
-        <v>187</v>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>182</v>
+      </c>
+      <c r="U9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -2571,15 +2692,27 @@
       <c r="D10" s="29">
         <v>22</v>
       </c>
-      <c r="E10" s="42"/>
+      <c r="E10" s="44"/>
       <c r="J10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -2595,12 +2728,24 @@
       <c r="D11" s="29">
         <v>21</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="44"/>
       <c r="K11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L11" t="s">
         <v>188</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>200</v>
+      </c>
+      <c r="U11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -2616,12 +2761,24 @@
       <c r="D12" s="29">
         <v>20</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="44"/>
       <c r="K12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L12" t="s">
         <v>188</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -2637,12 +2794,21 @@
       <c r="D13" s="29">
         <v>19</v>
       </c>
-      <c r="E13" s="42"/>
+      <c r="E13" s="44"/>
       <c r="K13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L13" t="s">
-        <v>188</v>
+        <v>183</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>197</v>
+      </c>
+      <c r="U13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -2658,12 +2824,21 @@
       <c r="D14" s="29">
         <v>18</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="44"/>
       <c r="K14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L14" t="s">
-        <v>188</v>
+        <v>183</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14" t="s">
+        <v>198</v>
+      </c>
+      <c r="U14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2679,9 +2854,12 @@
       <c r="D15" s="7">
         <v>17</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="44"/>
       <c r="K15" t="s">
-        <v>189</v>
+        <v>184</v>
+      </c>
+      <c r="L15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -2697,17 +2875,16 @@
       <c r="D16" s="29">
         <v>16</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
       <c r="K16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="L16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>34</v>
       </c>
@@ -2720,17 +2897,17 @@
       <c r="D17" s="29">
         <v>15</v>
       </c>
-      <c r="F17" t="s">
-        <v>171</v>
-      </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>33</v>
       </c>
@@ -2743,17 +2920,17 @@
       <c r="D18" s="29">
         <v>14</v>
       </c>
-      <c r="G18" t="s">
-        <v>175</v>
-      </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>32</v>
       </c>
@@ -2766,17 +2943,17 @@
       <c r="D19" s="29">
         <v>13</v>
       </c>
-      <c r="G19" t="s">
-        <v>172</v>
-      </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>31</v>
       </c>
@@ -2790,19 +2967,19 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>30</v>
       </c>
@@ -2816,13 +2993,10 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>29</v>
       </c>
@@ -2835,11 +3009,8 @@
       <c r="D22" s="29">
         <v>10</v>
       </c>
-      <c r="G22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>28</v>
       </c>
@@ -2853,7 +3024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>27</v>
       </c>
@@ -2867,7 +3038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>26</v>
       </c>
@@ -2881,7 +3052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -2895,7 +3066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>24</v>
       </c>
@@ -2909,7 +3080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>23</v>
       </c>
@@ -2923,7 +3094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>22</v>
       </c>
@@ -2937,7 +3108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>21</v>
       </c>
@@ -2951,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>20</v>
       </c>
@@ -2965,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>19</v>
       </c>
@@ -2991,6 +3162,706 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44712</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="33">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44713</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="33">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44714</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="33">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44715</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="33">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44716</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="33">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44717</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="33">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44718</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="33">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44719</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="33">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44720</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="33">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44721</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="33">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>36</v>
+      </c>
+      <c r="B12" s="8">
+        <v>44722</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44723</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="33">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44724</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="33">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44725</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="33">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44726</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="33">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>31</v>
+      </c>
+      <c r="B17" s="8">
+        <v>44727</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44728</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="33">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44729</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="33">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44730</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="33">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44731</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="33">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44732</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="33">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44733</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="33">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44734</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="33">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44735</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="33">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44736</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="33">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44737</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="33">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44738</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="33">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44739</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="33">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44740</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="33"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
+        <v>17</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44741</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="33"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
+        <v>16</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44742</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="33"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
+        <v>15</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <v>14</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44744</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="33"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
+        <v>13</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44745</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="33"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <v>12</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44746</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="33">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44747</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="33"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="33">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44748</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="33"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>9</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44749</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="33"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="33">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44750</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="33"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="33">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44751</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="33"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="33">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44752</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="33"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="33">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44753</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="33">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44754</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="33"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44755</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="33"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="33">
+        <v>2</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44756</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="33"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="33">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44757</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
@@ -3110,10 +3981,10 @@
       <c r="D5" s="19">
         <v>34</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="50" t="s">
         <v>134</v>
       </c>
       <c r="I5">
@@ -3136,8 +4007,8 @@
       <c r="D6" s="19">
         <v>33</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="49"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="51"/>
       <c r="I6">
         <v>5</v>
       </c>
@@ -3158,8 +4029,8 @@
       <c r="D7" s="19">
         <v>32</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="49"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="51"/>
       <c r="I7">
         <v>6</v>
       </c>
@@ -3183,8 +4054,8 @@
       <c r="D8" s="19">
         <v>31</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="49"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="51"/>
       <c r="I8">
         <v>7</v>
       </c>
@@ -3205,8 +4076,8 @@
       <c r="D9" s="19">
         <v>30</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="51"/>
       <c r="I9">
         <v>8</v>
       </c>
@@ -3227,10 +4098,10 @@
       <c r="D10" s="19">
         <v>29</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="51"/>
       <c r="I10">
         <v>9</v>
       </c>
@@ -3251,8 +4122,8 @@
       <c r="D11" s="19">
         <v>28</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="50"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -3267,8 +4138,8 @@
       <c r="D12" s="19">
         <v>27</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="39" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3285,8 +4156,8 @@
       <c r="D13" s="19">
         <v>26</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -3301,8 +4172,8 @@
       <c r="D14" s="19">
         <v>25</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
@@ -3317,8 +4188,8 @@
       <c r="D15" s="19">
         <v>24</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="48" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="50" t="s">
         <v>135</v>
       </c>
       <c r="G15" s="20"/>
@@ -3336,8 +4207,8 @@
       <c r="D16" s="19">
         <v>23</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="50"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3353,10 +4224,10 @@
       <c r="D17" s="19">
         <v>22</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="41" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3373,8 +4244,8 @@
       <c r="D18" s="19">
         <v>21</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="40"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
@@ -3389,8 +4260,8 @@
       <c r="D19" s="19">
         <v>20</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="48" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="50" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3407,8 +4278,8 @@
       <c r="D20" s="19">
         <v>19</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="50"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -3423,11 +4294,11 @@
       <c r="D21" s="19">
         <v>18</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="39" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="36"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -3442,9 +4313,9 @@
       <c r="D22" s="7">
         <v>17</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="36"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
@@ -3459,8 +4330,8 @@
       <c r="D23" s="19">
         <v>16</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="39" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="41" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3477,10 +4348,10 @@
       <c r="D24" s="19">
         <v>15</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="44"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
@@ -3495,8 +4366,8 @@
       <c r="D25" s="19">
         <v>14</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="40"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
@@ -3511,8 +4382,8 @@
       <c r="D26" s="19">
         <v>13</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="39" t="s">
+      <c r="E26" s="39"/>
+      <c r="F26" s="41" t="s">
         <v>139</v>
       </c>
       <c r="G26" s="12" t="s">
@@ -3532,8 +4403,8 @@
       <c r="D27" s="7">
         <v>12</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="44"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="46"/>
       <c r="G27" s="12" t="s">
         <v>94</v>
       </c>
@@ -3551,9 +4422,9 @@
       <c r="D28" s="19">
         <v>11</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="38" t="s">
+      <c r="E28" s="39"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="40" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3570,9 +4441,9 @@
       <c r="D29" s="19">
         <v>10</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
@@ -3587,8 +4458,8 @@
       <c r="D30" s="19">
         <v>9</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="40"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
@@ -3603,10 +4474,10 @@
       <c r="D31" s="19">
         <v>8</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="41" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3623,8 +4494,8 @@
       <c r="D32" s="19">
         <v>7</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="40"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
@@ -3639,8 +4510,8 @@
       <c r="D33" s="19">
         <v>6</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="39" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="41" t="s">
         <v>140</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -3660,8 +4531,8 @@
       <c r="D34" s="19">
         <v>5</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="40"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="4" t="s">
         <v>70</v>
       </c>
@@ -3679,8 +4550,8 @@
       <c r="D35" s="19">
         <v>4</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="39" t="s">
+      <c r="E35" s="39"/>
+      <c r="F35" s="41" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -3700,8 +4571,8 @@
       <c r="D36" s="19">
         <v>3</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="44"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="4" t="s">
         <v>72</v>
       </c>
@@ -3719,8 +4590,8 @@
       <c r="D37" s="19">
         <v>2</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="44"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="46"/>
       <c r="G37" s="4" t="s">
         <v>73</v>
       </c>
@@ -3738,8 +4609,8 @@
       <c r="D38" s="19">
         <v>1</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="40"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="4" t="s">
         <v>74</v>
       </c>
@@ -3984,7 +4855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
@@ -5288,7 +6159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
